--- a/simulation_data/iterative_algorithm/i_error_level_6_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_6_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.90032487562476</v>
+        <v>90.40544980813802</v>
       </c>
       <c r="D2" t="n">
-        <v>8.648504441331472</v>
+        <v>7.414153614758294</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.84550614988703</v>
+        <v>88.8024540312406</v>
       </c>
       <c r="D3" t="n">
-        <v>9.32604830881847</v>
+        <v>7.685672708023232</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.56171708886107</v>
+        <v>87.2010619972001</v>
       </c>
       <c r="D4" t="n">
-        <v>8.718209672681173</v>
+        <v>8.162577362919626</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.58349327018749</v>
+        <v>87.77954343764792</v>
       </c>
       <c r="D5" t="n">
-        <v>9.322197045572693</v>
+        <v>7.65217637654636</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.09928472019035</v>
+        <v>86.37505946589803</v>
       </c>
       <c r="D6" t="n">
-        <v>9.1287541055614</v>
+        <v>7.988324424345237</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.4100479196851</v>
+        <v>84.39797160208434</v>
       </c>
       <c r="D7" t="n">
-        <v>9.33251982594736</v>
+        <v>8.775436885255361</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.2479493569723</v>
+        <v>84.79171543377522</v>
       </c>
       <c r="D8" t="n">
-        <v>8.256280265606067</v>
+        <v>8.552109588703603</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.60836161596738</v>
+        <v>82.62506686386898</v>
       </c>
       <c r="D9" t="n">
-        <v>8.911186663888675</v>
+        <v>8.644320834589987</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.32169416038001</v>
+        <v>81.66879244743782</v>
       </c>
       <c r="D10" t="n">
-        <v>9.565034836561258</v>
+        <v>7.214223735576559</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.90294678326337</v>
+        <v>80.45594018576207</v>
       </c>
       <c r="D11" t="n">
-        <v>8.621295549929474</v>
+        <v>8.784484459399829</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.76640593679591</v>
+        <v>78.74312388731195</v>
       </c>
       <c r="D12" t="n">
-        <v>8.575376940879494</v>
+        <v>7.433643393037089</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.71812749754434</v>
+        <v>79.64119157177328</v>
       </c>
       <c r="D13" t="n">
-        <v>8.740980342130236</v>
+        <v>8.412523552269299</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.68073241438599</v>
+        <v>78.33860011491086</v>
       </c>
       <c r="D14" t="n">
-        <v>8.643159645799507</v>
+        <v>8.48600859466838</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.85421229800642</v>
+        <v>79.12990655593718</v>
       </c>
       <c r="D15" t="n">
-        <v>9.515997262248284</v>
+        <v>7.980520736180413</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.5097968561128</v>
+        <v>74.44546637550653</v>
       </c>
       <c r="D16" t="n">
-        <v>9.894624428114485</v>
+        <v>8.987048139571469</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.68911813843143</v>
+        <v>75.30516248242371</v>
       </c>
       <c r="D17" t="n">
-        <v>7.363803162964449</v>
+        <v>7.996694489885549</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.54231945412747</v>
+        <v>73.30245970700963</v>
       </c>
       <c r="D18" t="n">
-        <v>9.538362838675084</v>
+        <v>7.585944838952524</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.1531551495694</v>
+        <v>73.61929844328201</v>
       </c>
       <c r="D19" t="n">
-        <v>9.735235009590108</v>
+        <v>9.563520721804259</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.3309200025124</v>
+        <v>72.09654391350639</v>
       </c>
       <c r="D20" t="n">
-        <v>8.636821072694673</v>
+        <v>8.978913335509034</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.62880542688563</v>
+        <v>70.47920108150939</v>
       </c>
       <c r="D21" t="n">
-        <v>9.495412155730833</v>
+        <v>8.475435486862208</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.43166193236345</v>
+        <v>69.20303037893606</v>
       </c>
       <c r="D22" t="n">
-        <v>9.510690201739163</v>
+        <v>8.149296296064668</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.02783747181221</v>
+        <v>68.89779743727055</v>
       </c>
       <c r="D23" t="n">
-        <v>8.71127068029606</v>
+        <v>8.307935040260933</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.48712757990216</v>
+        <v>68.09041936300591</v>
       </c>
       <c r="D24" t="n">
-        <v>9.812250048761163</v>
+        <v>8.297906031871385</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.99578616887861</v>
+        <v>66.18152591276743</v>
       </c>
       <c r="D25" t="n">
-        <v>8.636182032243623</v>
+        <v>8.347900443731854</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>63.37384385869765</v>
+        <v>66.10026426555075</v>
       </c>
       <c r="D26" t="n">
-        <v>7.728898792403618</v>
+        <v>8.199540975029089</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.40888742380747</v>
+        <v>65.63214744387348</v>
       </c>
       <c r="D27" t="n">
-        <v>9.177378737477721</v>
+        <v>9.363187423573814</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.65945310972981</v>
+        <v>64.64811674079738</v>
       </c>
       <c r="D28" t="n">
-        <v>10.75310940183157</v>
+        <v>9.229499794477411</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.54653835358442</v>
+        <v>63.97667623950192</v>
       </c>
       <c r="D29" t="n">
-        <v>8.529601074059894</v>
+        <v>8.513044211191987</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.58403552682375</v>
+        <v>62.80940752937506</v>
       </c>
       <c r="D30" t="n">
-        <v>8.086864554111315</v>
+        <v>8.712247293523529</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.05271600038656</v>
+        <v>60.41123402150093</v>
       </c>
       <c r="D31" t="n">
-        <v>9.323722946115275</v>
+        <v>8.977589302501592</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.44827442986819</v>
+        <v>60.16913129476725</v>
       </c>
       <c r="D32" t="n">
-        <v>9.492240446811817</v>
+        <v>7.736116392109191</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.19153706881349</v>
+        <v>59.87634150217063</v>
       </c>
       <c r="D33" t="n">
-        <v>8.707825679558166</v>
+        <v>8.509752990129849</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>54.75500833432127</v>
+        <v>58.15428074623073</v>
       </c>
       <c r="D34" t="n">
-        <v>9.833354641536715</v>
+        <v>8.957212760202653</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.01484018833553</v>
+        <v>57.27761829813328</v>
       </c>
       <c r="D35" t="n">
-        <v>8.867929261240512</v>
+        <v>8.548758094528822</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.43085933177219</v>
+        <v>56.38955371921648</v>
       </c>
       <c r="D36" t="n">
-        <v>9.630054857693036</v>
+        <v>9.171163082389322</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.09943729829928</v>
+        <v>53.7979124928845</v>
       </c>
       <c r="D37" t="n">
-        <v>9.54111433920222</v>
+        <v>7.917247342845254</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.0400504456244</v>
+        <v>54.28141507511112</v>
       </c>
       <c r="D38" t="n">
-        <v>8.660490107414164</v>
+        <v>8.123858937260531</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.72766582415399</v>
+        <v>53.47506530708787</v>
       </c>
       <c r="D39" t="n">
-        <v>8.671669476087308</v>
+        <v>7.894969791430213</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.8079527755955</v>
+        <v>52.41057225244047</v>
       </c>
       <c r="D40" t="n">
-        <v>8.649636973055953</v>
+        <v>9.094787686758592</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.43973554420887</v>
+        <v>50.25297880426276</v>
       </c>
       <c r="D41" t="n">
-        <v>8.580254976448224</v>
+        <v>8.767953063620846</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.34646711022777</v>
+        <v>50.82534175975086</v>
       </c>
       <c r="D42" t="n">
-        <v>10.20250875529069</v>
+        <v>9.144948151028967</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.80265160423781</v>
+        <v>48.98031799320708</v>
       </c>
       <c r="D43" t="n">
-        <v>9.595617823915839</v>
+        <v>9.500844974163995</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.01383415823135</v>
+        <v>48.36327741117417</v>
       </c>
       <c r="D44" t="n">
-        <v>9.15779083509457</v>
+        <v>8.724639699994132</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.57589539725674</v>
+        <v>46.92003298344392</v>
       </c>
       <c r="D45" t="n">
-        <v>8.276783007181956</v>
+        <v>8.543694833293646</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.27789576890733</v>
+        <v>46.30782050678882</v>
       </c>
       <c r="D46" t="n">
-        <v>9.044741133803388</v>
+        <v>8.158809996569097</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.97006090958768</v>
+        <v>44.08076544581611</v>
       </c>
       <c r="D47" t="n">
-        <v>8.818349752820613</v>
+        <v>8.702208178213793</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.70175683276035</v>
+        <v>42.65637090579562</v>
       </c>
       <c r="D48" t="n">
-        <v>9.852492405904409</v>
+        <v>8.735953147244773</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.1640569173758</v>
+        <v>43.91779534931924</v>
       </c>
       <c r="D49" t="n">
-        <v>9.414195806419299</v>
+        <v>8.392435119141426</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.75980720789486</v>
+        <v>42.76096873941664</v>
       </c>
       <c r="D50" t="n">
-        <v>8.471233133173612</v>
+        <v>8.923436615020348</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.95171875005977</v>
+        <v>41.66978165135102</v>
       </c>
       <c r="D51" t="n">
-        <v>9.20932596310066</v>
+        <v>8.721285699070014</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.40519495155385</v>
+        <v>38.5334712502083</v>
       </c>
       <c r="D52" t="n">
-        <v>8.831018360026626</v>
+        <v>7.009467925815857</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.42243991646255</v>
+        <v>39.573802372032</v>
       </c>
       <c r="D53" t="n">
-        <v>8.773251899789226</v>
+        <v>8.687073925830674</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.75055634980362</v>
+        <v>37.15467478482755</v>
       </c>
       <c r="D54" t="n">
-        <v>8.437515411262996</v>
+        <v>9.049320831050023</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.76962985560296</v>
+        <v>35.25750343574986</v>
       </c>
       <c r="D55" t="n">
-        <v>9.612199100834822</v>
+        <v>9.612966414649508</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.29164297296588</v>
+        <v>34.36189453553075</v>
       </c>
       <c r="D56" t="n">
-        <v>8.800582137235445</v>
+        <v>8.849792402752271</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.6215960934457</v>
+        <v>34.73746212562103</v>
       </c>
       <c r="D57" t="n">
-        <v>9.229587515562098</v>
+        <v>9.231469005234466</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.85386267697573</v>
+        <v>34.06215309336481</v>
       </c>
       <c r="D58" t="n">
-        <v>8.790393084311061</v>
+        <v>8.491819326202874</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.24194773157557</v>
+        <v>33.20224333938054</v>
       </c>
       <c r="D59" t="n">
-        <v>8.935619696255134</v>
+        <v>8.772160275192803</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.4428109920142</v>
+        <v>31.33715029959997</v>
       </c>
       <c r="D60" t="n">
-        <v>7.574646175118438</v>
+        <v>7.692303804578519</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.87643543961451</v>
+        <v>30.84115328247703</v>
       </c>
       <c r="D61" t="n">
-        <v>9.266568181866004</v>
+        <v>9.824100359659957</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.07322205132237</v>
+        <v>30.09212039022332</v>
       </c>
       <c r="D62" t="n">
-        <v>8.969462370145877</v>
+        <v>8.282790020120455</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.81231244259332</v>
+        <v>29.36270970040953</v>
       </c>
       <c r="D63" t="n">
-        <v>8.756154052978699</v>
+        <v>8.237178280399601</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.63441393212162</v>
+        <v>28.56076502287421</v>
       </c>
       <c r="D64" t="n">
-        <v>9.57876411844744</v>
+        <v>8.831120214406459</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.50470622067346</v>
+        <v>28.60394218589642</v>
       </c>
       <c r="D65" t="n">
-        <v>8.095044259646105</v>
+        <v>9.588402493533303</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.10388751199467</v>
+        <v>27.37689200391384</v>
       </c>
       <c r="D66" t="n">
-        <v>8.884201029411905</v>
+        <v>8.275721983283157</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.85896894905797</v>
+        <v>24.545865144431</v>
       </c>
       <c r="D67" t="n">
-        <v>9.420664463886306</v>
+        <v>8.898469852996513</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.51305872600743</v>
+        <v>23.39568673832521</v>
       </c>
       <c r="D68" t="n">
-        <v>7.93780784809056</v>
+        <v>8.762178721966807</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.34710549729022</v>
+        <v>21.77557541612594</v>
       </c>
       <c r="D69" t="n">
-        <v>9.206564571781486</v>
+        <v>8.593818756881751</v>
       </c>
     </row>
   </sheetData>
